--- a/biology/Botanique/Sterculia_urens/Sterculia_urens.xlsx
+++ b/biology/Botanique/Sterculia_urens/Sterculia_urens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sterculia urens est une espèce d'arbres de la famille des Sterculiaceae selon la classification classique, ou de celle des Malvaceae selon la classification phylogénétique.
 Elle est originaire d'Inde et du Sri Lanka.
